--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_243__Reeval_Sobol_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_243__Reeval_Sobol_Modell_1.1.xlsx
@@ -6265,7 +6265,7 @@
                   <c:v>3.034894466400146</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>45.37891006469727</c:v>
+                  <c:v>45.37890243530273</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>3.034894466400146</c:v>
@@ -6412,7 +6412,7 @@
                   <c:v>45.39595031738281</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>53.98275756835938</c:v>
+                  <c:v>53.98276138305664</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>38.83975601196289</c:v>
@@ -8171,7 +8171,7 @@
         <v>46.8488</v>
       </c>
       <c r="F51">
-        <v>45.37891006469727</v>
+        <v>45.37890243530273</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>46.0374</v>
       </c>
       <c r="F100">
-        <v>53.98275756835938</v>
+        <v>53.98276138305664</v>
       </c>
     </row>
     <row r="101" spans="1:6">
